--- a/ProductMatch/UGA/ProductMatch_2010.xlsx
+++ b/ProductMatch/UGA/ProductMatch_2010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fraol.tesfaye\Desktop\ProductMatch\UGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF32DA63-D287-4A8A-A897-796E06EF4B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0160B6DA-5BC4-446A-9B33-C440EC50F6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5A819210-BF0E-4596-9D8A-397E74F97926}"/>
   </bookViews>
@@ -1484,7 +1484,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1502,6 +1502,14 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1524,7 +1532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1540,6 +1548,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1856,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9EF6B4-B7D1-4362-8B02-022253E11ABF}">
   <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163:C165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1868,16 +1877,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2903,7 +2912,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>209</v>
       </c>
